--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H2">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I2">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J2">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N2">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O2">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P2">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q2">
-        <v>4.126984831876</v>
+        <v>13.869982974</v>
       </c>
       <c r="R2">
-        <v>37.142863486884</v>
+        <v>124.829846766</v>
       </c>
       <c r="S2">
-        <v>0.0007765964661626685</v>
+        <v>0.002956752406031069</v>
       </c>
       <c r="T2">
-        <v>0.0007765964661626685</v>
+        <v>0.002956752406031069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H3">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I3">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J3">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>84.138969</v>
       </c>
       <c r="O3">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P3">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q3">
-        <v>1900.769902304991</v>
+        <v>1324.637988058926</v>
       </c>
       <c r="R3">
-        <v>17106.92912074492</v>
+        <v>11921.74189253033</v>
       </c>
       <c r="S3">
-        <v>0.3576778808870527</v>
+        <v>0.2823814971983241</v>
       </c>
       <c r="T3">
-        <v>0.3576778808870527</v>
+        <v>0.2823814971983241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H4">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I4">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J4">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.646409</v>
       </c>
       <c r="O4">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P4">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q4">
-        <v>263.1021506471511</v>
+        <v>183.354704356686</v>
       </c>
       <c r="R4">
-        <v>2367.919355824359</v>
+        <v>1650.192339210174</v>
       </c>
       <c r="S4">
-        <v>0.04950931703315616</v>
+        <v>0.03908688743742553</v>
       </c>
       <c r="T4">
-        <v>0.04950931703315616</v>
+        <v>0.03908688743742553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>182.932819</v>
       </c>
       <c r="I5">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J5">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N5">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O5">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P5">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q5">
-        <v>3.713211011799555</v>
+        <v>17.90709039322222</v>
       </c>
       <c r="R5">
-        <v>33.41889910619599</v>
+        <v>161.163813539</v>
       </c>
       <c r="S5">
-        <v>0.000698734467741917</v>
+        <v>0.003817368247994769</v>
       </c>
       <c r="T5">
-        <v>0.0006987344677419169</v>
+        <v>0.003817368247994769</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>182.932819</v>
       </c>
       <c r="I6">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J6">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>84.138969</v>
       </c>
       <c r="O6">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P6">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q6">
         <v>1710.197642991512</v>
@@ -818,10 +818,10 @@
         <v>15391.77878692361</v>
       </c>
       <c r="S6">
-        <v>0.3218168954071986</v>
+        <v>0.3645736988417891</v>
       </c>
       <c r="T6">
-        <v>0.3218168954071985</v>
+        <v>0.3645736988417891</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>182.932819</v>
       </c>
       <c r="I7">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J7">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.646409</v>
       </c>
       <c r="O7">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P7">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q7">
         <v>236.7233810663301</v>
@@ -880,10 +880,10 @@
         <v>2130.510429596971</v>
       </c>
       <c r="S7">
-        <v>0.04454548506557593</v>
+        <v>0.05046382737770773</v>
       </c>
       <c r="T7">
-        <v>0.04454548506557592</v>
+        <v>0.05046382737770773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>112.121186</v>
       </c>
       <c r="I8">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J8">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N8">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O8">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P8">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q8">
-        <v>2.275860749247111</v>
+        <v>10.97541831844445</v>
       </c>
       <c r="R8">
-        <v>20.482746743224</v>
+        <v>98.778764866</v>
       </c>
       <c r="S8">
-        <v>0.0004282607005706422</v>
+        <v>0.002339699665175529</v>
       </c>
       <c r="T8">
-        <v>0.0004282607005706422</v>
+        <v>0.002339699665175529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>112.121186</v>
       </c>
       <c r="I9">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J9">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>84.138969</v>
       </c>
       <c r="O9">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P9">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q9">
         <v>1048.195665899693</v>
@@ -1004,10 +1004,10 @@
         <v>9433.760993097236</v>
       </c>
       <c r="S9">
-        <v>0.1972444976529502</v>
+        <v>0.2234505307576779</v>
       </c>
       <c r="T9">
-        <v>0.1972444976529502</v>
+        <v>0.2234505307576779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>112.121186</v>
       </c>
       <c r="I10">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J10">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.646409</v>
       </c>
       <c r="O10">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P10">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q10">
         <v>145.0899099690082</v>
@@ -1066,10 +1066,10 @@
         <v>1305.809189721074</v>
       </c>
       <c r="S10">
-        <v>0.02730233231959139</v>
+        <v>0.03092973806787432</v>
       </c>
       <c r="T10">
-        <v>0.02730233231959139</v>
+        <v>0.03092973806787431</v>
       </c>
     </row>
   </sheetData>
